--- a/data/142/STANOR/04542 Employed persons total.xlsx
+++ b/data/142/STANOR/04542 Employed persons total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>04542: Employed persons total and employed persons at work (LFS), by quarter, contents, sex and occupational status</x:t>
   </x:si>
@@ -349,6 +349,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>There was a change in the LFS from January 2006, where the age limit was lowered from 16 to 15 years. In order to compare the figures for 2006 with the previous years, figures for 2006 have also been published based on the old method.</x:t>
   </x:si>
   <x:si>
@@ -364,7 +367,7 @@
     <x:t>From 2018, a new estimation method has been applied, the figures have been revised back to 2006. For more information, see separate &lt;a href='https://www.ssb.no/arbeid-og-lonn/artikler-og-publikasjoner/new-estimation-methodology-for-the-norwegian-labour-force-survey'&gt; article &lt;/a&gt;.</x:t>
   </x:si>
   <x:si>
-    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. See About the statistics for more information about the changes that have been made.</x:t>
+    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. Thue use of proxy interviewing ceased in 2021. This change seem to have given a break in some variables among young people. See About the statistics for more information.</x:t>
   </x:si>
   <x:si>
     <x:t>Due to the restructuring as of 2021, the number of salaried employees and self-employed are not comparable with previous quarters.</x:t>
@@ -373,13 +376,13 @@
     <x:t>Employed persons at work and actual working hours (hours per week) do not include those who were temporarily absent from work the whole reference week.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Employed persons (1 000 persons):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211028 08:00</x:t>
+    <x:t>20220127 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -841,14 +844,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B168"/>
+  <x:dimension ref="A1:B169"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.640625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -1727,9 +1729,12 @@
         <x:v>2810</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:2">
-      <x:c r="A114" s="4" t="s">
+    <x:row r="113" spans="1:2">
+      <x:c r="A113" s="2" t="s">
         <x:v>111</x:v>
+      </x:c>
+      <x:c r="B113" s="3" t="n">
+        <x:v>2817</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:2">
@@ -1767,8 +1772,8 @@
         <x:v>118</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:2">
-      <x:c r="A123" s="0" t="s">
+    <x:row r="122" spans="1:2">
+      <x:c r="A122" s="4" t="s">
         <x:v>119</x:v>
       </x:c>
     </x:row>
@@ -1782,8 +1787,8 @@
         <x:v>121</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:2">
-      <x:c r="A127" s="0" t="s">
+    <x:row r="126" spans="1:2">
+      <x:c r="A126" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
     </x:row>
@@ -1792,19 +1797,19 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:2">
-      <x:c r="A130" s="0" t="s">
+    <x:row r="129" spans="1:2">
+      <x:c r="A129" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:2">
       <x:c r="A131" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:2">
       <x:c r="A132" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:2">
@@ -1817,8 +1822,8 @@
         <x:v>127</x:v>
       </x:c>
     </x:row>
-    <x:row r="136" spans="1:2">
-      <x:c r="A136" s="0" t="s">
+    <x:row r="135" spans="1:2">
+      <x:c r="A135" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
     </x:row>
@@ -1832,8 +1837,8 @@
         <x:v>130</x:v>
       </x:c>
     </x:row>
-    <x:row r="140" spans="1:2">
-      <x:c r="A140" s="0" t="s">
+    <x:row r="139" spans="1:2">
+      <x:c r="A139" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
     </x:row>
@@ -1847,24 +1852,24 @@
         <x:v>133</x:v>
       </x:c>
     </x:row>
-    <x:row r="146" spans="1:2">
-      <x:c r="A146" s="0" t="s">
+    <x:row r="143" spans="1:2">
+      <x:c r="A143" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
     </x:row>
-    <x:row r="148" spans="1:2">
-      <x:c r="A148" s="0" t="s">
+    <x:row r="147" spans="1:2">
+      <x:c r="A147" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:2">
       <x:c r="A149" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:2">
       <x:c r="A150" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:2">
@@ -1874,31 +1879,31 @@
     </x:row>
     <x:row r="152" spans="1:2">
       <x:c r="A152" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:2">
       <x:c r="A153" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="155" spans="1:2">
-      <x:c r="A155" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:2">
+      <x:c r="A154" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:2">
       <x:c r="A156" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:2">
       <x:c r="A157" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="164" spans="1:2">
-      <x:c r="A164" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:2">
+      <x:c r="A158" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
     </x:row>
@@ -1907,8 +1912,8 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="167" spans="1:2">
-      <x:c r="A167" s="0" t="s">
+    <x:row r="166" spans="1:2">
+      <x:c r="A166" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
     </x:row>
@@ -1917,7 +1922,22 @@
         <x:v>144</x:v>
       </x:c>
     </x:row>
+    <x:row r="169" spans="1:2">
+      <x:c r="A169" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:mergeCells count="8">
+    <x:mergeCell ref="A115:B115"/>
+    <x:mergeCell ref="A116:B116"/>
+    <x:mergeCell ref="A117:B117"/>
+    <x:mergeCell ref="A118:B118"/>
+    <x:mergeCell ref="A119:B119"/>
+    <x:mergeCell ref="A120:B120"/>
+    <x:mergeCell ref="A121:B121"/>
+    <x:mergeCell ref="A122:B122"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
